--- a/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/09_Action_Weather.xlsx
+++ b/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/09_Action_Weather.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="794" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="794" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="36">
   <si>
     <t>Operation</t>
   </si>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t>A_PuntoDiPrelievo</t>
+  </si>
+  <si>
+    <t>Schedulazione Workflow Punti di Prelievo</t>
   </si>
 </sst>
 </file>
@@ -325,47 +328,56 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Trebuchet MS"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Trebuchet MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Trebuchet MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Trebuchet MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Trebuchet MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Trebuchet MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Trebuchet MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Trebuchet MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Trebuchet MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1855,7 +1867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
@@ -2034,11 +2046,11 @@
       <c r="A4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
+      <c r="B4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2050,14 +2062,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="36.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -2086,11 +2098,11 @@
       <c r="A3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
+      <c r="B3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2099,9 +2111,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2219,25 +2234,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E742C650-7594-421F-B32B-CC8DCB6B27D0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0704EC93-251E-40AE-95F0-F439BA5545C0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2259,9 +2264,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0704EC93-251E-40AE-95F0-F439BA5545C0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E742C650-7594-421F-B32B-CC8DCB6B27D0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/09_Action_Weather.xlsx
+++ b/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/09_Action_Weather.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="794" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="794" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Actions Labels" sheetId="7" r:id="rId8"/>
     <sheet name="Activities Labels" sheetId="8" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="38">
   <si>
     <t>Operation</t>
   </si>
@@ -310,6 +310,12 @@
   </si>
   <si>
     <t>Schedulazione Workflow Punti di Prelievo</t>
+  </si>
+  <si>
+    <t>RPM</t>
+  </si>
+  <si>
+    <t>intesa_user</t>
   </si>
 </sst>
 </file>
@@ -1868,7 +1874,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1927,10 +1933,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1950,6 +1956,28 @@
       </c>
       <c r="D1" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2062,8 +2090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -2111,15 +2139,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B88BEDE3A7878C4B83DDF76392E4AF43" ma:contentTypeVersion="0" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="3c9c3c33ec171c11194a64c89f5a23db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85f92fa7f7bbf34a5eeb9e781f8a7e8d">
     <xsd:element name="properties">
@@ -2233,21 +2252,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0704EC93-251E-40AE-95F0-F439BA5545C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70487C6D-DF5B-4B20-AFCC-FDCCFD91570A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2263,7 +2283,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E742C650-7594-421F-B32B-CC8DCB6B27D0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -2276,4 +2296,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0704EC93-251E-40AE-95F0-F439BA5545C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/09_Action_Weather.xlsx
+++ b/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/09_Action_Weather.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="794" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="794" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="36">
   <si>
     <t>Operation</t>
   </si>
@@ -249,9 +249,6 @@
     <t>CREATE/MODIFY</t>
   </si>
   <si>
-    <t>UpdateAttributeClimaticZone</t>
-  </si>
-  <si>
     <t>[Wizard Editor] Wizard Execution On Entity Type</t>
   </si>
   <si>
@@ -265,9 +262,6 @@
   </si>
   <si>
     <t>EI Weather Data</t>
-  </si>
-  <si>
-    <t>DELETE</t>
   </si>
   <si>
     <t>Dati Meteo</t>
@@ -798,6 +792,150 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4098" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -847,150 +985,6 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4098" name="_xssf_cell_comment" hidden="1"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>47</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1585,7 +1579,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1617,14 +1611,14 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -1632,14 +1626,14 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1647,13 +1641,13 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
         <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1693,10 +1687,10 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1704,10 +1698,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1719,10 +1713,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1749,40 +1743,26 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="B3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="4">
         <v>101</v>
       </c>
     </row>
@@ -1795,10 +1775,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="A4:C4"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1822,43 +1802,29 @@
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="B3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="5">
         <v>101</v>
       </c>
     </row>
@@ -1871,10 +1837,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1901,13 +1867,13 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1915,13 +1881,27 @@
         <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1935,7 +1915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
@@ -1963,10 +1943,10 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1974,10 +1954,10 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2050,35 +2030,35 @@
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2113,24 +2093,24 @@
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2139,6 +2119,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B88BEDE3A7878C4B83DDF76392E4AF43" ma:contentTypeVersion="0" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="3c9c3c33ec171c11194a64c89f5a23db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85f92fa7f7bbf34a5eeb9e781f8a7e8d">
     <xsd:element name="properties">
@@ -2252,22 +2241,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0704EC93-251E-40AE-95F0-F439BA5545C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70487C6D-DF5B-4B20-AFCC-FDCCFD91570A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2283,7 +2271,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E742C650-7594-421F-B32B-CC8DCB6B27D0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -2296,12 +2284,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0704EC93-251E-40AE-95F0-F439BA5545C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/09_Action_Weather.xlsx
+++ b/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/09_Action_Weather.xlsx
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="36">
   <si>
     <t>Operation</t>
   </si>
@@ -294,9 +294,6 @@
     <t>ScheduleWorkflowForecast</t>
   </si>
   <si>
-    <t>[Wizard Editor] Wizard Execution On Instance</t>
-  </si>
-  <si>
     <t>wizardName=ScheduleWorkflowForecast&amp;</t>
   </si>
   <si>
@@ -310,6 +307,9 @@
   </si>
   <si>
     <t>intesa_user</t>
+  </si>
+  <si>
+    <t>PuntoDiPrelievo</t>
   </si>
 </sst>
 </file>
@@ -1579,7 +1579,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1644,10 +1644,10 @@
         <v>29</v>
       </c>
       <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
         <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1775,10 +1775,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1821,11 +1821,25 @@
       <c r="B3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>32</v>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D3" s="5">
         <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="5">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1837,10 +1851,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D4" sqref="D4:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1884,7 +1898,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -1898,10 +1912,24 @@
         <v>29</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1943,7 +1971,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -1954,10 +1982,10 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2055,10 +2083,10 @@
         <v>29</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2107,10 +2135,10 @@
         <v>29</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2119,6 +2147,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2127,7 +2161,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B88BEDE3A7878C4B83DDF76392E4AF43" ma:contentTypeVersion="0" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="3c9c3c33ec171c11194a64c89f5a23db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85f92fa7f7bbf34a5eeb9e781f8a7e8d">
     <xsd:element name="properties">
@@ -2241,13 +2275,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E742C650-7594-421F-B32B-CC8DCB6B27D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0704EC93-251E-40AE-95F0-F439BA5545C0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -2255,7 +2298,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70487C6D-DF5B-4B20-AFCC-FDCCFD91570A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2269,19 +2312,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E742C650-7594-421F-B32B-CC8DCB6B27D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>